--- a/training_history.xlsx
+++ b/training_history.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Fold_3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Fold_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Fold_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Fold_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Fold_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Fold_3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,723 +438,1728 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>mae</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>val_accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>val_loss</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>val_mae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1.057610988616943</v>
       </c>
       <c r="B2" t="n">
-        <v>0.764542818069458</v>
+        <v>0.2440744787454605</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9768697023391724</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6983929872512817</v>
+        <v>0.1319518983364105</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.9876029491424561</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6947858333587646</v>
+        <v>0.174701452255249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9511822462081909</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6910334229469299</v>
+        <v>0.1326645761728287</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.9568419456481934</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6896772980690002</v>
+        <v>0.1644848734140396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9250370860099792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6875038146972656</v>
+        <v>0.1288428008556366</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.9274588823318481</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6891738772392273</v>
+        <v>0.1588017791509628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8993730545043945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6863517761230469</v>
+        <v>0.1283375471830368</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.9037048816680908</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6871055960655212</v>
+        <v>0.1588939726352692</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8743587732315063</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6846908330917358</v>
+        <v>0.1277939975261688</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.876593291759491</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6846539378166199</v>
+        <v>0.1549165993928909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8510357141494751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6833473443984985</v>
+        <v>0.1250533163547516</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.8524248003959656</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6844716668128967</v>
+        <v>0.1531642228364944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.827176570892334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6819866299629211</v>
+        <v>0.1239116340875626</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.8286731243133545</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6835262179374695</v>
+        <v>0.1522558182477951</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8039373755455017</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6799978613853455</v>
+        <v>0.1227220669388771</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.8045156002044678</v>
       </c>
       <c r="B10" t="n">
-        <v>0.68362957239151</v>
+        <v>0.1487866938114166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7809480428695679</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6791056990623474</v>
+        <v>0.1224646642804146</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.7841939330101013</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6837123036384583</v>
+        <v>0.1523400545120239</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7593733668327332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6798734068870544</v>
+        <v>0.1219568848609924</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>0.762441873550415</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6831521391868591</v>
+        <v>0.1499477922916412</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7410309314727783</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6788137555122375</v>
+        <v>0.1213130503892899</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.740091860294342</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6830752491950989</v>
+        <v>0.1453511267900467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7191666960716248</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6784043908119202</v>
+        <v>0.1196044832468033</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.7194270491600037</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6790511012077332</v>
+        <v>0.1441376805305481</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6983737945556641</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6755858063697815</v>
+        <v>0.1221468597650528</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.7043374180793762</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6814584732055664</v>
+        <v>0.1521163582801819</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6793899536132812</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6827266216278076</v>
+        <v>0.1175892204046249</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.6842440366744995</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6801458597183228</v>
+        <v>0.1487010419368744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6613935232162476</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6742997169494629</v>
+        <v>0.116336315870285</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>0.664570152759552</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6776221990585327</v>
+        <v>0.1435424089431763</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6427831053733826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6750649809837341</v>
+        <v>0.1180626079440117</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>0.6457130908966064</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6759220361709595</v>
+        <v>0.1417808681726456</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6276150345802307</v>
       </c>
       <c r="D18" t="n">
-        <v>0.671577513217926</v>
+        <v>0.1162166520953178</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>0.6284253001213074</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6784576177597046</v>
+        <v>0.1404686272144318</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6114721894264221</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6727433800697327</v>
+        <v>0.1161602512001991</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.6128301024436951</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6734158992767334</v>
+        <v>0.1411055028438568</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5927813649177551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6716011762619019</v>
+        <v>0.1142274290323257</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.5968583226203918</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6731488108634949</v>
+        <v>0.1419705152511597</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5789570808410645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6721899509429932</v>
+        <v>0.1132430210709572</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>0.5824348330497742</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6772305369377136</v>
+        <v>0.1406830847263336</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5617981553077698</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6741471290588379</v>
+        <v>0.1121828332543373</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.5674858689308167</v>
       </c>
       <c r="B23" t="n">
-        <v>0.675434410572052</v>
+        <v>0.1418240666389465</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5474752187728882</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6715545654296875</v>
+        <v>0.1110455691814423</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.5516874194145203</v>
       </c>
       <c r="B24" t="n">
-        <v>0.673582911491394</v>
+        <v>0.1388837248086929</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5350222587585449</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6697525978088379</v>
+        <v>0.1115375384688377</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.5368868112564087</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6716376543045044</v>
+        <v>0.1350347548723221</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5232478976249695</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6682263612747192</v>
+        <v>0.1140629425644875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.5261636972427368</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6727762222290039</v>
+        <v>0.1411167532205582</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5061302185058594</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6662539839744568</v>
+        <v>0.1091030910611153</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.5113245248794556</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6694928407669067</v>
+        <v>0.1373871862888336</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4933818280696869</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6682676672935486</v>
+        <v>0.106471449136734</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.4999478459358215</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6701102256774902</v>
+        <v>0.1363797783851624</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4809333086013794</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6665444374084473</v>
+        <v>0.1062907800078392</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.4868447482585907</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6671567559242249</v>
+        <v>0.1356761902570724</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4693241119384766</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6672480702400208</v>
+        <v>0.1047728508710861</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>0.4747461974620819</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6671532392501831</v>
+        <v>0.1360576748847961</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4572125375270844</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6625075340270996</v>
+        <v>0.104065403342247</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>0.4633233845233917</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6653354167938232</v>
+        <v>0.132832333445549</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4461208879947662</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6625816226005554</v>
+        <v>0.1041460335254669</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>0.4517190456390381</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6685910820960999</v>
+        <v>0.1306106299161911</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4356315433979034</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6664006114006042</v>
+        <v>0.1059253141283989</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>0.4395962059497833</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6720162034034729</v>
+        <v>0.1283106654882431</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4251530766487122</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6781866550445557</v>
+        <v>0.1010315343737602</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.4288219213485718</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6806547045707703</v>
+        <v>0.1254226118326187</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4146125912666321</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6784741878509521</v>
+        <v>0.1003787070512772</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.4209467768669128</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6752908825874329</v>
+        <v>0.129696398973465</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4049910008907318</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6673434376716614</v>
+        <v>0.09932669997215271</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>0.4102507531642914</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6711224317550659</v>
+        <v>0.1277626156806946</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3949837982654572</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6712361574172974</v>
+        <v>0.09818119555711746</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>0.4007070362567902</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6691327691078186</v>
+        <v>0.1267214268445969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3862701058387756</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6689026951789856</v>
+        <v>0.09782303124666214</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>0.3930754661560059</v>
       </c>
       <c r="B38" t="n">
-        <v>0.66913241147995</v>
+        <v>0.1298448592424393</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3785566389560699</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6649495959281921</v>
+        <v>0.09921883046627045</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>0.3841646015644073</v>
       </c>
       <c r="B39" t="n">
-        <v>0.666417121887207</v>
+        <v>0.1283651888370514</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3686350286006927</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6672481298446655</v>
+        <v>0.09720321744680405</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.3770776391029358</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6691891551017761</v>
+        <v>0.1299600601196289</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3602501451969147</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6645467281341553</v>
+        <v>0.09615291655063629</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.3679895401000977</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6694886684417725</v>
+        <v>0.127831369638443</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.355877548456192</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6673639416694641</v>
+        <v>0.1022533401846886</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>0.3600929081439972</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668189525604248</v>
+        <v>0.1286340802907944</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3469271659851074</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6636184453964233</v>
+        <v>0.09899250417947769</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>0.3517058193683624</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6643598079681396</v>
+        <v>0.1249887570738792</v>
       </c>
       <c r="C43" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3382968306541443</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6633314490318298</v>
+        <v>0.09558200091123581</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>0.3457026481628418</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6643752455711365</v>
+        <v>0.12758968770504</v>
       </c>
       <c r="C44" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3302628099918365</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6630233526229858</v>
+        <v>0.0970303863286972</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>0.3390986323356628</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6626130938529968</v>
+        <v>0.1287806183099747</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3234347701072693</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6616448760032654</v>
+        <v>0.09866391867399216</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>0.3289946317672729</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6635575890541077</v>
+        <v>0.1214224696159363</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3207950592041016</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6627681255340576</v>
+        <v>0.103213906288147</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.3218595385551453</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6618552803993225</v>
+        <v>0.1172026097774506</v>
       </c>
       <c r="C47" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3081359565258026</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6599776744842529</v>
+        <v>0.08773177117109299</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>0.3141610622406006</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6618536114692688</v>
+        <v>0.1146367639303207</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3047488927841187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.659450352191925</v>
+        <v>0.09210173040628433</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.3095915913581848</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6615785360336304</v>
+        <v>0.1194205731153488</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2972353398799896</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6594898700714111</v>
+        <v>0.08872305601835251</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>0.3017378449440002</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6616475582122803</v>
+        <v>0.1123466044664383</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2898744344711304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6590432524681091</v>
+        <v>0.08491171896457672</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>0.2967909872531891</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6620725989341736</v>
+        <v>0.115357480943203</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2867885529994965</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6586334705352783</v>
+        <v>0.09123935550451279</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.2905483245849609</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1148603335022926</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2787330448627472</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.08260165899991989</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.2856443822383881</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1156025752425194</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2727357149124146</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.08136532455682755</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.2802859246730804</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1128914579749107</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2712257206439972</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.09110518544912338</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.2747244536876678</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1122541129589081</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2648327648639679</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08733062446117401</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.2697115838527679</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1112389042973518</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2600157260894775</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.08721640706062317</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.2663455307483673</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1168911829590797</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2543754279613495</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.08347883820533752</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.2600243985652924</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1101699844002724</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2490231245756149</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.07935561239719391</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.2549026310443878</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1074074357748032</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2440435737371445</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0777159109711647</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.2504135370254517</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1067766696214676</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.239923894405365</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.07947531342506409</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.2467541843652725</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1086218357086182</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2370287328958511</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.08255962282419205</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.2434536516666412</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.112070195376873</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2325539737939835</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.07977364957332611</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.2381023019552231</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1077646762132645</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2290412336587906</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.08220513910055161</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2332067042589188</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1040394902229309</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.2271207571029663</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.08911973983049393</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.2316083610057831</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1105450019240379</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.220182865858078</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.07842418551445007</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.2266524881124496</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1063016653060913</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2164842486381531</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.07687334716320038</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.2221341580152512</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1042938828468323</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.2138382792472839</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0785987377166748</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.2194417715072632</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1057973206043243</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2101471424102783</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.07741767168045044</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.2160434126853943</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1060377806425095</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2092771977186203</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.08731824904680252</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.2121004611253738</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1039566546678543</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.2056279480457306</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.08789017051458359</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.2108050733804703</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1073277592658997</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.2005790770053864</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.08013955503702164</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.2066246271133423</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1062848791480064</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1970062553882599</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.07572410255670547</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.2030344307422638</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1031148135662079</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1956322491168976</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.08150427043437958</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.1986304372549057</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.09971505403518677</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1926039755344391</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.07993157953023911</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.1961919367313385</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1000038832426071</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1876074373722076</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.07296542078256607</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.1953244656324387</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1063589379191399</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1871189922094345</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.08291614800691605</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.1906377226114273</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1005149483680725</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1820944994688034</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.07196773588657379</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.1892321407794952</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1039793640375137</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1797866076231003</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.0729459822177887</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.1849839240312576</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.09809756278991699</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1783039122819901</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.07680536806583405</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.1829253882169724</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.09899907559156418</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1769202351570129</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.08112306147813797</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.1811495721340179</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1010179743170738</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1724598854780197</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.07254675030708313</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.1785796880722046</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1001425534486771</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1707495898008347</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.07585394382476807</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.1764063239097595</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1019526347517967</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1674420684576035</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.07336173951625824</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.1737507879734039</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1006489545106888</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1651065498590469</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.07171652466058731</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.1711786538362503</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.09990297257900238</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1650631278753281</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.08161476254463196</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.1687112003564835</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.09782131761312485</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1621057689189911</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.07950107753276825</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.1659689545631409</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.09478669613599777</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1582203805446625</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.07021515071392059</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.1636979877948761</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.09672123193740845</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1560542434453964</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.06963720172643661</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.1625769436359406</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.09899389743804932</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1538297384977341</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.06996193528175354</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.1599487662315369</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.09794381260871887</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1527552008628845</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.07251707464456558</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.1583316773176193</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.09827731549739838</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1502362340688705</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.0700606107711792</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.1545166224241257</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.09258121997117996</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.148528128862381</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.07066034525632858</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.1532857716083527</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.09457700699567795</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1459630578756332</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.06822878122329712</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.1521639376878738</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.09819703549146652</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1471620053052902</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.08194287121295929</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.1509309709072113</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.09666603803634644</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1427326947450638</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.07008388638496399</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.1469292491674423</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.09110134094953537</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1408685445785522</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.06935214251279831</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.1461307257413864</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.0946803018450737</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1385292559862137</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.06651021540164948</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.1441109627485275</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.0936037003993988</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1375341713428497</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.07020175457000732</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.1427294760942459</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.09484501928091049</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1351112127304077</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.06709709018468857</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.1405307650566101</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.09130654484033585</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1347844302654266</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.07260870933532715</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.1390638798475266</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.09299739450216293</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1347875893115997</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.08170876652002335</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +2173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,723 +2184,1728 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>mae</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>val_accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>val_loss</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>val_mae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004926108289510012</v>
+        <v>1.071210265159607</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7384249567985535</v>
+        <v>0.2633897960186005</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9785373210906982</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7313942909240723</v>
+        <v>0.1340983510017395</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.9913892149925232</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7175670862197876</v>
+        <v>0.1782152056694031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.9529047012329102</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6887491941452026</v>
+        <v>0.1319561451673508</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9592970013618469</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6904452443122864</v>
+        <v>0.1665220707654953</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.9275722503662109</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6869454383850098</v>
+        <v>0.1318647861480713</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.930402398109436</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6930631995201111</v>
+        <v>0.1609449237585068</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.9029905200004578</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7088315486907959</v>
+        <v>0.1324691027402878</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9019255638122559</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6946908235549927</v>
+        <v>0.1551608890295029</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.8750183582305908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6913422346115112</v>
+        <v>0.1275420933961868</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8793390393257141</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6858489513397217</v>
+        <v>0.1572971493005753</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.849664568901062</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6836297512054443</v>
+        <v>0.126625582575798</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.852400004863739</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6790032386779785</v>
+        <v>0.1520914137363434</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.8258071541786194</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6803202629089355</v>
+        <v>0.1265225112438202</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8278704285621643</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6795381307601929</v>
+        <v>0.1513541042804718</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.8024478554725647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6822409629821777</v>
+        <v>0.125382587313652</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8070671558380127</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6754944920539856</v>
+        <v>0.1542261689901352</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.7814304232597351</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6773123145103455</v>
+        <v>0.1248894408345222</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7829512357711792</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6780436635017395</v>
+        <v>0.148998036980629</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.7587916254997253</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6770226955413818</v>
+        <v>0.1233002319931984</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7625519633293152</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6768953800201416</v>
+        <v>0.1515316516160965</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.7377699613571167</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6770884990692139</v>
+        <v>0.1224408820271492</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7399548292160034</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6765438318252563</v>
+        <v>0.1476638913154602</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.7159298062324524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6791740655899048</v>
+        <v>0.1200354993343353</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7198693752288818</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6743472814559937</v>
+        <v>0.1474288552999496</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.6961722373962402</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6761747002601624</v>
+        <v>0.119437575340271</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.698309063911438</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6742017269134521</v>
+        <v>0.1437254101037979</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.6780953407287598</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6762042045593262</v>
+        <v>0.1199546158313751</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6805921196937561</v>
       </c>
       <c r="B16" t="n">
-        <v>0.677295982837677</v>
+        <v>0.1459561139345169</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.6598911285400391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6746045351028442</v>
+        <v>0.1201521381735802</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6621955037117004</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6708477735519409</v>
+        <v>0.1444755047559738</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.6401093006134033</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6730479598045349</v>
+        <v>0.1165954247117043</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6436870098114014</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6696293950080872</v>
+        <v>0.1426417976617813</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.6237875819206238</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6732658743858337</v>
+        <v>0.1172669306397438</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6273951530456543</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6684640049934387</v>
+        <v>0.1444379538297653</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.6056004762649536</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6716977953910828</v>
+        <v>0.11390670388937</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6096585988998413</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6683299541473389</v>
+        <v>0.1401499062776566</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.5912208557128906</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6762328743934631</v>
+        <v>0.1171308234333992</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5936238169670105</v>
       </c>
       <c r="B21" t="n">
-        <v>0.66827392578125</v>
+        <v>0.1394977867603302</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.5741685032844543</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6727665662765503</v>
+        <v>0.1139612421393394</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.578072190284729</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6661405563354492</v>
+        <v>0.1412950605154037</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.5596742630004883</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6743324995040894</v>
+        <v>0.1142756119370461</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5631633996963501</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6693852543830872</v>
+        <v>0.1389929503202438</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.5429923534393311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6697462201118469</v>
+        <v>0.1115293353796005</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5486800670623779</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6677260994911194</v>
+        <v>0.1396828293800354</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.531402051448822</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6740626096725464</v>
+        <v>0.1154146641492844</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5351598858833313</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6723227500915527</v>
+        <v>0.1390161961317062</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5170445442199707</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6792153716087341</v>
+        <v>0.1133894324302673</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5196518301963806</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6724095344543457</v>
+        <v>0.1361856758594513</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.5028315186500549</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6745759844779968</v>
+        <v>0.1104404553771019</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5082380175590515</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6672717928886414</v>
+        <v>0.1381179541349411</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.4896895885467529</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6721781492233276</v>
+        <v>0.1092395782470703</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4926666021347046</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6651262044906616</v>
+        <v>0.1305732280015945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.4780275523662567</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6703385710716248</v>
+        <v>0.1103265956044197</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4818819463253021</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6629616618156433</v>
+        <v>0.1334141343832016</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.4632240831851959</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6697898507118225</v>
+        <v>0.1032550558447838</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4693145751953125</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6634476184844971</v>
+        <v>0.1320861279964447</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.4518046975135803</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6694912910461426</v>
+        <v>0.1024418696761131</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4573912620544434</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6618430018424988</v>
+        <v>0.1289884746074677</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.4411256909370422</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6689333915710449</v>
+        <v>0.1044592633843422</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4467293918132782</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6636114120483398</v>
+        <v>0.1297324001789093</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.4331588745117188</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6679786443710327</v>
+        <v>0.1098149418830872</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.437661349773407</v>
       </c>
       <c r="B33" t="n">
-        <v>0.664652407169342</v>
+        <v>0.1350526064634323</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.4207153916358948</v>
       </c>
       <c r="D33" t="n">
-        <v>0.666752815246582</v>
+        <v>0.1044083833694458</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4262012541294098</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6661888957023621</v>
+        <v>0.1306484937667847</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.4089294075965881</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6704401969909668</v>
+        <v>0.09938608109951019</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4154591858386993</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6645821928977966</v>
+        <v>0.1294955015182495</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.4035912454128265</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6698381304740906</v>
+        <v>0.1103509068489075</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4065192639827728</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6638632416725159</v>
+        <v>0.1319996118545532</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.3900460600852966</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6689877510070801</v>
+        <v>0.09846231341362</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3963718116283417</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6627731919288635</v>
+        <v>0.1273695975542068</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.3798505961894989</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6702085137367249</v>
+        <v>0.09604067355394363</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3858639299869537</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6657053232192993</v>
+        <v>0.1234085038304329</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.3705133199691772</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6702483892440796</v>
+        <v>0.09329026937484741</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3759502768516541</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6637054681777954</v>
+        <v>0.1205828040838242</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.3614118993282318</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6693649291992188</v>
+        <v>0.09123973548412323</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3673882484436035</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6617773771286011</v>
+        <v>0.1197464317083359</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.3532769680023193</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6687775254249573</v>
+        <v>0.08931969851255417</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3597503006458282</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6589205861091614</v>
+        <v>0.1203474402427673</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.3438907861709595</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6718509197235107</v>
+        <v>0.08602147549390793</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3529832065105438</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6652198433876038</v>
+        <v>0.1227140873670578</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.337032288312912</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6811279058456421</v>
+        <v>0.08785485476255417</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3438843488693237</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6693932414054871</v>
+        <v>0.1178330108523369</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.3290584981441498</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6777915954589844</v>
+        <v>0.08639056235551834</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3360267579555511</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6668564081192017</v>
+        <v>0.1173472926020622</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.3223810195922852</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6685395240783691</v>
+        <v>0.08516310155391693</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3296443819999695</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6623383164405823</v>
+        <v>0.1192206293344498</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.3142065107822418</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6693743467330933</v>
+        <v>0.08274348080158234</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3230353593826294</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6636998057365417</v>
+        <v>0.119182713329792</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.3104232549667358</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6674636602401733</v>
+        <v>0.09196144342422485</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3165893256664276</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6600143313407898</v>
+        <v>0.1193547770380974</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.3011657297611237</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6654829978942871</v>
+        <v>0.08273045718669891</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3100216388702393</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6603288054466248</v>
+        <v>0.1180703118443489</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.2943426966667175</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6649153232574463</v>
+        <v>0.07933340221643448</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3022729456424713</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6592493057250977</v>
+        <v>0.1142230406403542</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.288767397403717</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6672177910804749</v>
+        <v>0.08019121736288071</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2962844967842102</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6625072360038757</v>
+        <v>0.1146620064973831</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.282409280538559</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6707549691200256</v>
+        <v>0.07886799424886703</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2907136976718903</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6595935821533203</v>
+        <v>0.114519976079464</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.2805828154087067</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6654916405677795</v>
+        <v>0.09276736527681351</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.2850472927093506</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1146755069494247</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2708964943885803</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.07742799073457718</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.279539555311203</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1134423166513443</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2657803893089294</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.07721587270498276</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.2728428244590759</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1103290468454361</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2602587640285492</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.07561147212982178</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.269553929567337</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.1133568212389946</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2568649053573608</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08165030181407928</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.2625244855880737</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1076927930116653</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2543813288211823</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.09092207998037338</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.2595101296901703</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1124795600771904</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2465518265962601</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.07831503450870514</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.2543125748634338</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1099118292331696</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2408569753170013</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.07231220602989197</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.2498031109571457</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1109624058008194</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2371101826429367</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.07509748637676239</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.2448762059211731</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1082606092095375</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2333263903856277</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.07702768594026566</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.240605890750885</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1078096628189087</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2300556600093842</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.08157695084810257</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.2351791113615036</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1056942939758301</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2238403260707855</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.07040753215551376</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.2312004417181015</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1031139865517616</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2211231887340546</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.075496606528759</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2278564125299454</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1072830706834793</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.2163107693195343</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.07077856361865997</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.2243724912405014</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1053885817527771</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.2135711908340454</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.07623518258333206</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.2206774652004242</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1067135334014893</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2091809511184692</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.07168403267860413</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.2167086005210876</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1048247441649437</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.2062382996082306</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.07420552521944046</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.2125522941350937</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1014615818858147</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2015705555677414</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.06755046546459198</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.2100392282009125</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1040819436311722</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1986862123012543</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.06940396875143051</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.2065055370330811</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1055015176534653</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1953983455896378</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.06875434517860413</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.2027366012334824</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1017061546444893</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1935767829418182</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.07549979537725449</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.1994293332099915</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1005614921450615</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1887243241071701</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.06624907255172729</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.1966182738542557</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.1003636047244072</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1856129914522171</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.06538691371679306</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.1938373297452927</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.1021924018859863</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1828532367944717</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.06666675209999084</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.1904754936695099</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.09950082004070282</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.180541604757309</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.06888384371995926</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.1880027502775192</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1009485423564911</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1770400255918503</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.0652526393532753</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.1838379353284836</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.09516859799623489</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1741421818733215</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.06395279616117477</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.1820150911808014</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.09927461296319962</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1715167015790939</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.06370861828327179</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.1787858903408051</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.09686985611915588</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1689674258232117</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.06350628286600113</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.1769036054611206</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0963919460773468</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1660343855619431</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.06171407923102379</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.1740527898073196</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.09707888215780258</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1633006930351257</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.06002750247716904</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.1706578582525253</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.09238198399543762</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1616739481687546</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.0644078403711319</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.1676840037107468</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.09056609123945236</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1586190611124039</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.06006389111280441</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.166522890329361</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.09491533041000366</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1560573279857635</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.05749504268169403</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.1636351495981216</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.09259743988513947</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1543746292591095</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.06115581095218658</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.1615388989448547</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.09283676743507385</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1520168632268906</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.0585600882768631</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.1582295596599579</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.08692985773086548</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.151285856962204</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.06754229217767715</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.1577724665403366</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.09263110160827637</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1491363495588303</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.06712197512388229</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.1555539220571518</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.09325120598077774</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1477621048688889</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.0698535218834877</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.1521420925855637</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.08702370524406433</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1447294503450394</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.06512755900621414</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.1503022909164429</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.08847807347774506</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1417904049158096</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.05669742450118065</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.1487400382757187</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.08951742947101593</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1399158239364624</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.05806500837206841</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.1464245766401291</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.08719340711832047</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1397107839584351</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0669083297252655</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.145172581076622</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.08886250853538513</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1365646570920944</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.05999341979622841</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.1429045051336288</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.08661025762557983</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.134733647108078</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.05920183286070824</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.1412373483181</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.08658836036920547</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1347401887178421</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.06932281702756882</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.140577495098114</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.09160873293876648</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1316183060407639</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.05845069512724876</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.1381722837686539</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.08918800204992294</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1295362561941147</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.05636837333440781</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.1353934109210968</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0843576192855835</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1278426200151443</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.05686185136437416</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.1343225538730621</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.08706925809383392</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1260349899530411</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.05670985579490662</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.1325826495885849</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.08593971282243729</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1244122684001923</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.05634811520576477</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
   </sheetData>
@@ -1909,7 +3919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,723 +3930,1728 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>loss</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>mae</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>val_accuracy</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>val_loss</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>val_mae</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>learning_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1.069854021072388</v>
       </c>
       <c r="B2" t="n">
-        <v>0.764542818069458</v>
+        <v>0.2599307298660278</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9815661907196045</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6983929872512817</v>
+        <v>0.1459049880504608</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.9912245273590088</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6947858333587646</v>
+        <v>0.1807622015476227</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9529544115066528</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6910334229469299</v>
+        <v>0.1312961876392365</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>0.9588714838027954</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6896772980690002</v>
+        <v>0.1661317497491837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9267977476119995</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6875038146972656</v>
+        <v>0.130681112408638</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>0.9308378100395203</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6891738772392273</v>
+        <v>0.1636651754379272</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.9009932279586792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6863517761230469</v>
+        <v>0.1301313638687134</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.904269814491272</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6871055960655212</v>
+        <v>0.1619899868965149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8754151463508606</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6846908330917358</v>
+        <v>0.1299673318862915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>0.8801634907722473</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6846539378166199</v>
+        <v>0.1594486683607101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8523316979408264</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6833473443984985</v>
+        <v>0.1289169192314148</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>0.8554479479789734</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6844716668128967</v>
+        <v>0.1596880406141281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8271899223327637</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6819866299629211</v>
+        <v>0.1280760020017624</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.8319905996322632</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6835262179374695</v>
+        <v>0.1591991186141968</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.8039056658744812</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6799978613853455</v>
+        <v>0.1303782165050507</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>0.8060999512672424</v>
       </c>
       <c r="B10" t="n">
-        <v>0.68362957239151</v>
+        <v>0.1523328274488449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7813596725463867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6791056990623474</v>
+        <v>0.1291663348674774</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0</v>
+        <v>0.7861810326576233</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6837123036384583</v>
+        <v>0.157489150762558</v>
       </c>
       <c r="C11" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7599145174026489</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6798734068870544</v>
+        <v>0.1265289783477783</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0</v>
+        <v>0.766213595867157</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6831521391868591</v>
+        <v>0.1584971845149994</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7398636937141418</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6788137555122375</v>
+        <v>0.125768169760704</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>0.7423547506332397</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6830752491950989</v>
+        <v>0.1530787497758865</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.7210004329681396</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6784043908119202</v>
+        <v>0.12651027739048</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.7225496768951416</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6790511012077332</v>
+        <v>0.152765765786171</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6983858942985535</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6755858063697815</v>
+        <v>0.1240787282586098</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.7046158909797668</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6814584732055664</v>
+        <v>0.156960740685463</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.682746946811676</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6827266216278076</v>
+        <v>0.1259022802114487</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.6839688420295715</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6801458597183228</v>
+        <v>0.15101458132267</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6651797294616699</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6742997169494629</v>
+        <v>0.1268089860677719</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>0.6653431057929993</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6776221990585327</v>
+        <v>0.1524385213851929</v>
       </c>
       <c r="C17" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6451517939567566</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6750649809837341</v>
+        <v>0.1235617622733116</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>0.6453477740287781</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6759220361709595</v>
+        <v>0.1441790461540222</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6259170174598694</v>
       </c>
       <c r="D18" t="n">
-        <v>0.671577513217926</v>
+        <v>0.1208635941147804</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>0.6288209557533264</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6784576177597046</v>
+        <v>0.1455044746398926</v>
       </c>
       <c r="C19" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.6083357334136963</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6727433800697327</v>
+        <v>0.1198374778032303</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.6152524948120117</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6734158992767334</v>
+        <v>0.1504270434379578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5917705893516541</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6716011762619019</v>
+        <v>0.1224004179239273</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.5968586802482605</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6731488108634949</v>
+        <v>0.1471501439809799</v>
       </c>
       <c r="C21" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5794118642807007</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6721899509429932</v>
+        <v>0.1220978498458862</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>0.5834003686904907</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6772305369377136</v>
+        <v>0.1492707878351212</v>
       </c>
       <c r="C22" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5609483122825623</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6741471290588379</v>
+        <v>0.1177512183785439</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>0.5623815059661865</v>
       </c>
       <c r="B23" t="n">
-        <v>0.675434410572052</v>
+        <v>0.1357027292251587</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5471984148025513</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6715545654296875</v>
+        <v>0.1174049973487854</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.5508348345756531</v>
       </c>
       <c r="B24" t="n">
-        <v>0.673582911491394</v>
+        <v>0.1403456330299377</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5326653718948364</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6697525978088379</v>
+        <v>0.1162682771682739</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.5397552847862244</v>
       </c>
       <c r="B25" t="n">
-        <v>0.6716376543045044</v>
+        <v>0.1490825861692429</v>
       </c>
       <c r="C25" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5206792950630188</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6682263612747192</v>
+        <v>0.1177388578653336</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.5224706530570984</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6727762222290039</v>
+        <v>0.1385273784399033</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.5075228810310364</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6662539839744568</v>
+        <v>0.1174810752272606</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.5108657479286194</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6694928407669067</v>
+        <v>0.1400188356637955</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4919033646583557</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6682676672935486</v>
+        <v>0.1154744476079941</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.4995026886463165</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6701102256774902</v>
+        <v>0.1446723639965057</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4829137623310089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6665444374084473</v>
+        <v>0.1170411333441734</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>0.4845733344554901</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6671567559242249</v>
+        <v>0.1371198743581772</v>
       </c>
       <c r="C29" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4676967561244965</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6672480702400208</v>
+        <v>0.1142870485782623</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>0.4732241630554199</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6671532392501831</v>
+        <v>0.1366820782423019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4579848349094391</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6625075340270996</v>
+        <v>0.1143321469426155</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>0.4596670269966125</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6653354167938232</v>
+        <v>0.1325473338365555</v>
       </c>
       <c r="C31" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4455947279930115</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6625816226005554</v>
+        <v>0.1117008998990059</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>0.4510271847248077</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6685910820960999</v>
+        <v>0.1374313831329346</v>
       </c>
       <c r="C32" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4335151612758636</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6664006114006042</v>
+        <v>0.1097091883420944</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>0.4403798878192902</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6720162034034729</v>
+        <v>0.137708991765976</v>
       </c>
       <c r="C33" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4247126579284668</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6781866550445557</v>
+        <v>0.1097062826156616</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>0.4285510778427124</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6806547045707703</v>
+        <v>0.131510004401207</v>
       </c>
       <c r="C34" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4153303503990173</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6784741878509521</v>
+        <v>0.1097075864672661</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.4176820814609528</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6752908825874329</v>
+        <v>0.1316480338573456</v>
       </c>
       <c r="C35" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.4031200706958771</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6673434376716614</v>
+        <v>0.1054401397705078</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>0.4091289043426514</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6711224317550659</v>
+        <v>0.133026048541069</v>
       </c>
       <c r="C36" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3978033661842346</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6712361574172974</v>
+        <v>0.1121484786272049</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>0.4000135958194733</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6691327691078186</v>
+        <v>0.1314354836940765</v>
       </c>
       <c r="C37" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3848387598991394</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6689026951789856</v>
+        <v>0.1034911945462227</v>
+      </c>
+      <c r="E37" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>0.3903601169586182</v>
       </c>
       <c r="B38" t="n">
-        <v>0.66913241147995</v>
+        <v>0.1303129494190216</v>
       </c>
       <c r="C38" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3750404715538025</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6649495959281921</v>
+        <v>0.1015657559037209</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0</v>
+        <v>0.3794552981853485</v>
       </c>
       <c r="B39" t="n">
-        <v>0.666417121887207</v>
+        <v>0.1255478411912918</v>
       </c>
       <c r="C39" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3670756220817566</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6672481298446655</v>
+        <v>0.1007146611809731</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.3716941475868225</v>
       </c>
       <c r="B40" t="n">
-        <v>0.6691891551017761</v>
+        <v>0.1257380992174149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3565822243690491</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6645467281341553</v>
+        <v>0.09629214555025101</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.3646823763847351</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6694886684417725</v>
+        <v>0.1281576901674271</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3487965166568756</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6673639416694641</v>
+        <v>0.09613716602325439</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>0.3553101718425751</v>
       </c>
       <c r="B42" t="n">
-        <v>0.668189525604248</v>
+        <v>0.1238454356789589</v>
       </c>
       <c r="C42" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.341219037771225</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6636184453964233</v>
+        <v>0.09737852215766907</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>0.3471854627132416</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6643598079681396</v>
+        <v>0.1223713830113411</v>
       </c>
       <c r="C43" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3336526453495026</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6633314490318298</v>
+        <v>0.09485919773578644</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>0.3391523063182831</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6643752455711365</v>
+        <v>0.121879830956459</v>
       </c>
       <c r="C44" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3257071673870087</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6630233526229858</v>
+        <v>0.09100683778524399</v>
+      </c>
+      <c r="E44" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>0.3318222761154175</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6626130938529968</v>
+        <v>0.1212612092494965</v>
       </c>
       <c r="C45" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3185834884643555</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6616448760032654</v>
+        <v>0.09039582312107086</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>0.3264559209346771</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6635575890541077</v>
+        <v>0.1237768307328224</v>
       </c>
       <c r="C46" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3119439780712128</v>
       </c>
       <c r="D46" t="n">
-        <v>0.6627681255340576</v>
+        <v>0.09109440445899963</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.3183037042617798</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6618552803993225</v>
+        <v>0.1201461777091026</v>
       </c>
       <c r="C47" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3054781854152679</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6599776744842529</v>
+        <v>0.0912507027387619</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0</v>
+        <v>0.311819314956665</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6618536114692688</v>
+        <v>0.1185872033238411</v>
       </c>
       <c r="C48" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.3002658486366272</v>
       </c>
       <c r="D48" t="n">
-        <v>0.659450352191925</v>
+        <v>0.09485474973917007</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.3097468614578247</v>
       </c>
       <c r="B49" t="n">
-        <v>0.6615785360336304</v>
+        <v>0.1303300112485886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.294349193572998</v>
       </c>
       <c r="D49" t="n">
-        <v>0.6594898700714111</v>
+        <v>0.09397228807210922</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>0.298814594745636</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6616475582122803</v>
+        <v>0.1171489134430885</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2868296504020691</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6590432524681091</v>
+        <v>0.0884239450097084</v>
+      </c>
+      <c r="E50" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>0.2932662069797516</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6620725989341736</v>
+        <v>0.1170029267668724</v>
       </c>
       <c r="C51" t="n">
-        <v>0.004926108289510012</v>
+        <v>0.2851150333881378</v>
       </c>
       <c r="D51" t="n">
-        <v>0.6586334705352783</v>
+        <v>0.1008614674210548</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.2880951166152954</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.1204811185598373</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.2741965651512146</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.08642653375864029</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.2852182984352112</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.122269406914711</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.2703177332878113</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.08823896199464798</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.2784066796302795</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.1202623769640923</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.2721319198608398</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.1093295440077782</v>
+      </c>
+      <c r="E54" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.2721851766109467</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.116995669901371</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.2594148516654968</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.08604426681995392</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.2659700810909271</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.116052120923996</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.2566472589969635</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.09163490682840347</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.2613493800163269</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1152512058615685</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.2486671507358551</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.08131860196590424</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.2561579942703247</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1130102202296257</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.246363177895546</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.08833899348974228</v>
+      </c>
+      <c r="E58" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.2518139779567719</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.113650768995285</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.2395587265491486</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.08086744695901871</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.2474985867738724</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1132185161113739</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2355881780385971</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.08160533010959625</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.2446671575307846</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.1156248077750206</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.2308303862810135</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.08084727823734283</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0.2385035455226898</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1108784303069115</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.2281815707683563</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.08403138816356659</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.2351570874452591</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1133521497249603</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.2227267175912857</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.07880394160747528</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.2305423617362976</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1098722293972969</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.2187273055315018</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.07803602516651154</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.2273512035608292</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1118402108550072</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.2149452865123749</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.07663234323263168</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.2206496149301529</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1023620069026947</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.2108547687530518</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.07441326975822449</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.2195671647787094</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1090324968099594</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.2078433334827423</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.07547742873430252</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0.2179060578346252</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.114760622382164</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.2100954800844193</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.09525388479232788</v>
+      </c>
+      <c r="E68" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.2126251757144928</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1090157851576805</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.2010908424854279</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.07644713670015335</v>
+      </c>
+      <c r="E69" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.2104341834783554</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1121301651000977</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.1977448016405106</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.07677104324102402</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.2060480415821075</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1097771599888802</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.1943431943655014</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.07416660338640213</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0.2015276849269867</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1053132340312004</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.1935009658336639</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.08068931847810745</v>
+      </c>
+      <c r="E72" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.1997766196727753</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.106848880648613</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.1879152953624725</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.07084435969591141</v>
+      </c>
+      <c r="E73" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.1956552267074585</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.10440993309021</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.1853306740522385</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.07109447568655014</v>
+      </c>
+      <c r="E74" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.1936660706996918</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1064499020576477</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.1823107153177261</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.07175334542989731</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.1922086030244827</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.109569638967514</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.1801135241985321</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.07361963391304016</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0.1875087916851044</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1045472919940948</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.1768619418144226</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.07024668157100677</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.1852511912584305</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1051154062151909</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1741649359464645</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.07029758393764496</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.1822122931480408</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1043849214911461</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.1730068325996399</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.07931850105524063</v>
+      </c>
+      <c r="E79" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.1800665110349655</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.1047326028347015</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.1697874814271927</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.0712006613612175</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.176644891500473</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.1027287840843201</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.1669059991836548</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.06895274668931961</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.1745953559875488</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1015200167894363</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1661059856414795</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.07527110725641251</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0.1729302704334259</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.1035108417272568</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.1622457355260849</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.06887044757604599</v>
+      </c>
+      <c r="E83" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.1692103147506714</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1002781912684441</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1600973159074783</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.06883050501346588</v>
+      </c>
+      <c r="E84" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.1673062741756439</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1016341149806976</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.1571983397006989</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.06621627509593964</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.1649308502674103</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1020420491695404</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1551394015550613</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.06810688227415085</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0.1630372554063797</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1007993593811989</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1561503410339355</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.07999385148286819</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.1611762046813965</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1026827916502953</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1538092941045761</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.07866286486387253</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.1587775200605392</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1019522547721863</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1491423696279526</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.06874684244394302</v>
+      </c>
+      <c r="E89" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.1569868475198746</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.1012611910700798</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1471660286188126</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.06679851561784744</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.155050054192543</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1013520359992981</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1454873234033585</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.06761852651834488</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0.1535408496856689</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1007509753108025</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1429836750030518</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.06506983190774918</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.1518670171499252</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.1023560538887978</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.1417239010334015</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.06764490902423859</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.1480189859867096</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.09566963464021683</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1405145823955536</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.07024876773357391</v>
+      </c>
+      <c r="E94" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.1469907909631729</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.09822944551706314</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.1389430165290833</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.07110182195901871</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.1447809636592865</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.09782218933105469</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.1378243267536163</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.07424475997686386</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.1423751562833786</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.095847487449646</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1338960975408554</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.06366154551506042</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>0.141645759344101</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.09913918375968933</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.1323022544384003</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.06535829603672028</v>
+      </c>
+      <c r="E98" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>0.139917254447937</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.0989345982670784</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.1317267566919327</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.06962347775697708</v>
+      </c>
+      <c r="E99" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>0.137036994099617</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.09438148140907288</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.1293573677539825</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.06624775379896164</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4.999999873689376e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>0.1361568570137024</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.09600020200014114</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.1270975768566132</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.06262323260307312</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4.999999873689376e-05</v>
       </c>
     </row>
   </sheetData>
